--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GPT/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GPT/results.xlsx
@@ -547,10 +547,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0596</v>
+        <v>0.06</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2325</v>
+        <v>0.2353</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C4" t="n">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6503</v>
+        <v>0.6556</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C5" t="n">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.378</v>
+        <v>0.3606</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="C6" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3467</v>
+        <v>0.366</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C7" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4968</v>
+        <v>0.5008</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="C8" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4205</v>
+        <v>0.4259</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C9" t="n">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6808</v>
+        <v>0.6811</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
